--- a/data/balance_sheet/3digits/total/353_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/353_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>353-Steam and air conditioning supply</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>353-Steam and air conditioning supply</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,24 +915,29 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>43052.24683</v>
       </c>
       <c r="D5" s="32" t="n">
-        <v>51873.36084</v>
+        <v>51873.36083999999</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>78009.25147999999</v>
+        <v>78009.25148000001</v>
       </c>
       <c r="F5" s="33" t="n">
-        <v>83531.96961000001</v>
+        <v>83531.96961</v>
       </c>
       <c r="G5" s="32" t="n">
         <v>80996.77334</v>
@@ -1496,26 +946,31 @@
         <v>102594.56988</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>110507.7758</v>
+        <v>119700.71823</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>126908.50683</v>
+        <v>127777.74651</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>147897.71714</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>195831.03936</v>
+        <v>195837.70699</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>229207.23692</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>231238.46887</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>355916.108</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>16494.66977</v>
@@ -1536,10 +991,10 @@
         <v>45728.38469</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>40566.00655</v>
+        <v>43090.41173000001</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>42526.96075</v>
+        <v>43084.59673999999</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>50102.28761</v>
@@ -1548,17 +1003,22 @@
         <v>57495.39848</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>72921.82593000001</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>72922.9007</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>93469.336</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
-        <v>805.53842</v>
+        <v>805.5384200000001</v>
       </c>
       <c r="D7" s="22" t="n">
         <v>1482.36984</v>
@@ -1573,13 +1033,13 @@
         <v>2527.89318</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>3360.781300000001</v>
+        <v>3360.7813</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>2002.97723</v>
+        <v>3688.47808</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>1334.99855</v>
+        <v>1335.80729</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>1688.35033</v>
@@ -1588,14 +1048,19 @@
         <v>4531.68995</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>1889.7243</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>1890.47799</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>2021.074</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>512.17375</v>
@@ -1630,12 +1095,17 @@
       <c r="M8" s="22" t="n">
         <v>5924.01686</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>3920.833</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>14865.46126</v>
@@ -1656,26 +1126,31 @@
         <v>39798.49018</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>35976.70996</v>
+        <v>36669.6328</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>38426.4358</v>
+        <v>38983.26305</v>
       </c>
       <c r="K9" s="22" t="n">
-        <v>45958.68192000001</v>
+        <v>45958.68192</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>49159.26037</v>
+        <v>49159.26037000001</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>66154.97299000001</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>66155.29407</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>85670.851</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>540.66876</v>
@@ -1696,7 +1171,7 @@
         <v>81.79404</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>187.87986</v>
+        <v>276.19043</v>
       </c>
       <c r="J10" s="21" t="n">
         <v>268.20926</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>4230.48789</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>1752.754</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>852.1650999999999</v>
@@ -1736,7 +1216,7 @@
         <v>1651.60122</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>2105.46559</v>
+        <v>2339.75765</v>
       </c>
       <c r="J11" s="21" t="n">
         <v>2446.55291</v>
@@ -1750,18 +1230,23 @@
       <c r="M11" s="22" t="n">
         <v>3183.59967</v>
       </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+      <c r="N11" s="22" t="n">
+        <v>3609.332</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>369.80295</v>
       </c>
       <c r="D12" s="23" t="n">
-        <v>302.8715100000001</v>
+        <v>302.87151</v>
       </c>
       <c r="E12" s="23" t="n">
         <v>1720.10566</v>
@@ -1779,7 +1264,7 @@
         <v>82.43855000000001</v>
       </c>
       <c r="J12" s="33" t="n">
-        <v>10.1301</v>
+        <v>184.00969</v>
       </c>
       <c r="K12" s="23" t="n">
         <v>134.40076</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>205.7618</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>187.665</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>0</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>369.80295</v>
@@ -1939,7 +1444,7 @@
         <v>54.19371999999999</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>10.1301</v>
+        <v>184.00969</v>
       </c>
       <c r="K16" s="22" t="n">
         <v>134.40076</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>205.7618</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>186.688</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>14141.53808</v>
@@ -2016,10 +1531,10 @@
         <v>28746.51751</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>31820.52497</v>
+        <v>34307.29437</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>40809.44027000001</v>
+        <v>40813.64855</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>45810.07817</v>
@@ -2028,14 +1543,19 @@
         <v>75878.22414000001</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>91952.73325</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>91953.38815</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>136842.279</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>13404.14561</v>
@@ -2050,16 +1570,16 @@
         <v>23882.27701</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>24680.96091000001</v>
+        <v>24680.96091</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>26602.56678</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>29807.66056</v>
+        <v>32219.11708</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>37290.21773</v>
+        <v>37293.17893</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>40743.12243</v>
@@ -2068,14 +1588,19 @@
         <v>67017.05435999999</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>82845.51234</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>82846.16724</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>124861.526</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>276.27447</v>
@@ -2084,7 +1609,7 @@
         <v>591.41076</v>
       </c>
       <c r="E20" s="22" t="n">
-        <v>6766.069520000001</v>
+        <v>6766.069519999999</v>
       </c>
       <c r="F20" s="21" t="n">
         <v>2715.05018</v>
@@ -2096,7 +1621,7 @@
         <v>1528.95348</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>1258.05728</v>
+        <v>1270.62558</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>2267.98656</v>
@@ -2108,14 +1633,19 @@
         <v>6386.7417</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>6336.42603</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>6336.426030000001</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>9348.440000000001</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>81.4718</v>
@@ -2216,7 +1756,7 @@
         <v>227.11999</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>289.1843299999999</v>
+        <v>289.18433</v>
       </c>
       <c r="J23" s="21" t="n">
         <v>365.24645</v>
@@ -2230,12 +1770,17 @@
       <c r="M23" s="22" t="n">
         <v>772.1741000000001</v>
       </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+      <c r="N23" s="22" t="n">
+        <v>1264.899</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>176.7888</v>
@@ -2256,10 +1801,10 @@
         <v>75.15697</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>56.31112</v>
+        <v>119.0557</v>
       </c>
       <c r="J24" s="21" t="n">
-        <v>272.54194</v>
+        <v>273.78902</v>
       </c>
       <c r="K24" s="22" t="n">
         <v>248.4442</v>
@@ -2270,12 +1815,17 @@
       <c r="M24" s="22" t="n">
         <v>1023.74829</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>462.062</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>837.45223</v>
@@ -2296,10 +1846,10 @@
         <v>1767.76812</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>2010.74399</v>
+        <v>2218.06236</v>
       </c>
       <c r="J25" s="21" t="n">
-        <v>2702.010209999999</v>
+        <v>2833.05815</v>
       </c>
       <c r="K25" s="22" t="n">
         <v>3699.78083</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>5421.26193</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>6364.548</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>634.59483</v>
@@ -2336,10 +1891,10 @@
         <v>1415.50814</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>1601.43231</v>
+        <v>1808.75068</v>
       </c>
       <c r="J26" s="21" t="n">
-        <v>2088.56262</v>
+        <v>2219.61056</v>
       </c>
       <c r="K26" s="22" t="n">
         <v>2954.98249</v>
@@ -2350,21 +1905,26 @@
       <c r="M26" s="22" t="n">
         <v>4446.38944</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>5459.196</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
-        <v>953.49943</v>
+        <v>953.4994300000001</v>
       </c>
       <c r="D27" s="23" t="n">
         <v>2593.36595</v>
       </c>
       <c r="E27" s="23" t="n">
-        <v>566.4673799999999</v>
+        <v>566.46738</v>
       </c>
       <c r="F27" s="33" t="n">
         <v>967.61778</v>
@@ -2376,29 +1936,34 @@
         <v>1207.2079</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>8200.239539999999</v>
+        <v>10234.30305</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>3844.92496</v>
+        <v>3947.34008</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>3368.39779</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>4851.01544</v>
+        <v>4851.015439999999</v>
       </c>
       <c r="M27" s="23" t="n">
         <v>9232.779990000001</v>
       </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+      <c r="N27" s="23" t="n">
+        <v>11173.268</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
-        <v>715.09809</v>
+        <v>715.0980900000001</v>
       </c>
       <c r="D28" s="22" t="n">
         <v>2100.10093</v>
@@ -2416,7 +1981,7 @@
         <v>471.60327</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>7215.182299999999</v>
+        <v>9160.453160000001</v>
       </c>
       <c r="J28" s="21" t="n">
         <v>2400.74297</v>
@@ -2430,12 +1995,17 @@
       <c r="M28" s="22" t="n">
         <v>4069.98012</v>
       </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+      <c r="N28" s="22" t="n">
+        <v>6771.228</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>22.13256</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>22.133</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>0</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>109.44304</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>181.38</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>238.40134</v>
@@ -2573,13 +2158,13 @@
         <v>115.87929</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>735.6046299999999</v>
+        <v>735.60463</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>985.05724</v>
+        <v>1073.84989</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>1444.18199</v>
+        <v>1546.59711</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>1009.8114</v>
@@ -2588,14 +2173,19 @@
         <v>1954.26193</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>5031.22427</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>5031.224270000001</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>4198.527</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>231.08909</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>231.08909</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>4580.199900000001</v>
@@ -2736,7 +2341,7 @@
         <v>10385.09957</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>11955.33798</v>
+        <v>12705.18562</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>15863.58491</v>
@@ -2748,14 +2353,19 @@
         <v>27413.10985</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>24447.17771</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>26457.06879</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>81182.705</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>467.25267</v>
@@ -2776,10 +2386,10 @@
         <v>5195.24559</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>5880.77234</v>
+        <v>6000.624180000001</v>
       </c>
       <c r="J37" s="21" t="n">
-        <v>8417.41987</v>
+        <v>8417.419870000002</v>
       </c>
       <c r="K37" s="22" t="n">
         <v>6826.035150000001</v>
@@ -2788,14 +2398,19 @@
         <v>9048.394709999999</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>12690.0082</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>12690.89928</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>17187.99</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>5.15871</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>404.04482</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>35.103</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>192.0858</v>
@@ -2859,7 +2479,7 @@
         <v>432.32012</v>
       </c>
       <c r="J39" s="21" t="n">
-        <v>542.7556599999999</v>
+        <v>542.75566</v>
       </c>
       <c r="K39" s="22" t="n">
         <v>672.01426</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>2200.10974</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>2528.588</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>1349.72954</v>
@@ -2896,7 +2521,7 @@
         <v>1536.97485</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>1712.8884</v>
+        <v>2186.80517</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>2967.92494</v>
@@ -2910,12 +2535,17 @@
       <c r="M40" s="22" t="n">
         <v>2565.68078</v>
       </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+      <c r="N40" s="22" t="n">
+        <v>6606.521</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>61.10738</v>
@@ -2948,14 +2578,19 @@
         <v>1776.77272</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>288.7842</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>2288.7842</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>2062.702</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>2504.8658</v>
@@ -3007,7 +2647,7 @@
         <v>1134.28156</v>
       </c>
       <c r="F43" s="21" t="n">
-        <v>7381.407109999999</v>
+        <v>7381.40711</v>
       </c>
       <c r="G43" s="22" t="n">
         <v>3032.84094</v>
@@ -3016,32 +2656,37 @@
         <v>1457.722</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>2327.15527</v>
+        <v>2483.2343</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>1918.40114</v>
       </c>
       <c r="K43" s="22" t="n">
-        <v>7162.325779999999</v>
+        <v>7162.32578</v>
       </c>
       <c r="L43" s="22" t="n">
         <v>7042.401400000001</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>6298.54997</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>6307.549970000001</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>52761.801</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>380.54095</v>
       </c>
       <c r="D44" s="23" t="n">
-        <v>739.7765899999999</v>
+        <v>739.7765900000001</v>
       </c>
       <c r="E44" s="23" t="n">
         <v>2172.25532</v>
@@ -3070,18 +2715,23 @@
       <c r="M44" s="23" t="n">
         <v>1625.55954</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>1625.56</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>380.54095</v>
       </c>
       <c r="D45" s="22" t="n">
-        <v>739.7765899999999</v>
+        <v>739.7765900000001</v>
       </c>
       <c r="E45" s="22" t="n">
         <v>2172.25532</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>1625.55954</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>1625.56</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>216.87952</v>
@@ -3219,7 +2884,7 @@
         <v>2389.8015</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>2482.47398</v>
+        <v>2486.92226</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>3054.28362</v>
@@ -3230,12 +2895,17 @@
       <c r="M48" s="46" t="n">
         <v>5585.8276</v>
       </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+      <c r="N48" s="46" t="n">
+        <v>5061.169</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>216.65429</v>
@@ -3259,7 +2929,7 @@
         <v>2363.12154</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>2418.98573</v>
+        <v>2423.43401</v>
       </c>
       <c r="K49" s="22" t="n">
         <v>2776.6614</v>
@@ -3270,12 +2940,17 @@
       <c r="M49" s="22" t="n">
         <v>3670.71301</v>
       </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+      <c r="N49" s="22" t="n">
+        <v>3014.013</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>0.22523</v>
@@ -3310,18 +2985,23 @@
       <c r="M50" s="22" t="n">
         <v>1915.11459</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>2047.156</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>5915.116230000001</v>
       </c>
       <c r="D51" s="46" t="n">
-        <v>6568.590869999999</v>
+        <v>6568.59087</v>
       </c>
       <c r="E51" s="46" t="n">
         <v>8174.320070000001</v>
@@ -3336,38 +3016,43 @@
         <v>11074.71311</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>12170.5869</v>
+        <v>13568.4436</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>16298.07637</v>
+        <v>16324.72879</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>17276.911</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>20034.08617</v>
+        <v>20040.7538</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>23235.5711</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>23255.1823</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>26374.126</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>4556.9265</v>
       </c>
       <c r="D52" s="22" t="n">
-        <v>6110.202299999999</v>
+        <v>6110.2023</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>6741.734689999999</v>
+        <v>6741.73469</v>
       </c>
       <c r="F52" s="21" t="n">
-        <v>8134.488689999999</v>
+        <v>8134.48869</v>
       </c>
       <c r="G52" s="22" t="n">
         <v>9293.868149999998</v>
@@ -3376,26 +3061,31 @@
         <v>8724.84067</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>10180.84495</v>
+        <v>11557.37687</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>12319.21606</v>
+        <v>12320.48004</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>12621.56755</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>16098.3431</v>
+        <v>16105.01073</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>13293.98644</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>13313.59764</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>16311</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>0</v>
@@ -3430,12 +3120,17 @@
       <c r="M53" s="22" t="n">
         <v>7.20275</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>14.21254</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>248.19193</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>42.102</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>168.72267</v>
@@ -3487,22 +3187,22 @@
         <v>367.19419</v>
       </c>
       <c r="F55" s="21" t="n">
-        <v>480.6559999999999</v>
+        <v>480.656</v>
       </c>
       <c r="G55" s="22" t="n">
         <v>1332.21218</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>801.7817700000002</v>
+        <v>801.7817700000001</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>565.9943</v>
+        <v>565.9943000000001</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>816.3494600000001</v>
+        <v>841.7379</v>
       </c>
       <c r="K55" s="22" t="n">
-        <v>638.6676200000001</v>
+        <v>638.6676199999999</v>
       </c>
       <c r="L55" s="22" t="n">
         <v>208.91459</v>
@@ -3510,12 +3210,17 @@
       <c r="M55" s="22" t="n">
         <v>373.43641</v>
       </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+      <c r="N55" s="22" t="n">
+        <v>1121.336</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>1165.29251</v>
@@ -3530,7 +3235,7 @@
         <v>1564.08114</v>
       </c>
       <c r="G56" s="22" t="n">
-        <v>633.7570700000001</v>
+        <v>633.75707</v>
       </c>
       <c r="H56" s="21" t="n">
         <v>1447.20348</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>9011.21155</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>8644.236999999999</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>9.86201</v>
@@ -3576,13 +3286,13 @@
         <v>84.81456999999999</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>135.72234</v>
+        <v>157.04712</v>
       </c>
       <c r="J57" s="21" t="n">
         <v>218.99148</v>
       </c>
       <c r="K57" s="22" t="n">
-        <v>655.7383600000001</v>
+        <v>655.7383599999999</v>
       </c>
       <c r="L57" s="22" t="n">
         <v>295.34172</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>271.12167</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>255.062</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0.1</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>30.42035</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>94407.76196</v>
@@ -3735,26 +3465,31 @@
         <v>199716.58198</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>214369.63593</v>
+        <v>236439.5848</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>260795.89189</v>
+        <v>261991.27167</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>279578.86521</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>286473.85403</v>
+        <v>286506.49013</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>303451.85068</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>303556.07966</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>307459.224</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>159.7643</v>
@@ -3775,10 +3510,10 @@
         <v>263.16459</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>312.80546</v>
+        <v>313.19861</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>483.2465299999999</v>
+        <v>498.25118</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>1136.39636</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>8730.972</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>1905.612</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>7906.17314</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>1068.511</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>159.7643</v>
@@ -3975,10 +3735,10 @@
         <v>263.16459</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>312.80546</v>
+        <v>313.19861</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>480.8175299999999</v>
+        <v>495.8221800000001</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>505.83537</v>
@@ -3989,12 +3749,17 @@
       <c r="M67" s="22" t="n">
         <v>824.7988600000001</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>837.101</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>153.395</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>358.88242</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>515.71</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>153.395</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>406.103</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>95.65442</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>109.607</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>0</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>173.228</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>1494.73538</v>
@@ -4375,7 +4185,7 @@
         <v>1542.90523</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>998.71608</v>
+        <v>2016.90523</v>
       </c>
       <c r="J77" s="33" t="n">
         <v>3512.22432</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>3746.51608</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>3479.413</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>1208.63224</v>
@@ -4495,7 +4320,7 @@
         <v>1639.05209</v>
       </c>
       <c r="I80" s="22" t="n">
-        <v>920.86294</v>
+        <v>1939.05209</v>
       </c>
       <c r="J80" s="21" t="n">
         <v>2067.05209</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>2124.96608</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>1857.863</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>30</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>348.25</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>348.25</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>316.10314</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>1969.8</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>1969.8</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>84179.88329</v>
@@ -4815,26 +4680,31 @@
         <v>182531.54634</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>197668.85208</v>
+        <v>218636.65159</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>240266.69625</v>
+        <v>241446.80454</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>254851.7305</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>262664.42754</v>
+        <v>262694.04974</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>271171.82718</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>271254.04133</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>284943.702</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>1136.16995</v>
@@ -4849,16 +4719,16 @@
         <v>18796.10999</v>
       </c>
       <c r="G89" s="22" t="n">
-        <v>4610.187140000001</v>
+        <v>4610.18714</v>
       </c>
       <c r="H89" s="21" t="n">
-        <v>7500.67159</v>
+        <v>7500.671589999999</v>
       </c>
       <c r="I89" s="22" t="n">
-        <v>9024.122539999998</v>
+        <v>9118.278539999999</v>
       </c>
       <c r="J89" s="21" t="n">
-        <v>19655.27689</v>
+        <v>19658.77689</v>
       </c>
       <c r="K89" s="22" t="n">
         <v>19782.77689</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>19723.52328</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>20986.522</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>67740.70083</v>
@@ -4898,7 +4773,7 @@
         <v>166762.43285</v>
       </c>
       <c r="J90" s="21" t="n">
-        <v>198895.29864</v>
+        <v>200001.76775</v>
       </c>
       <c r="K90" s="22" t="n">
         <v>205596.64855</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>219095.75647</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>227104.207</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>3991.64368</v>
@@ -4923,7 +4803,7 @@
         <v>6264.50715</v>
       </c>
       <c r="E91" s="22" t="n">
-        <v>6220.036569999999</v>
+        <v>6220.03657</v>
       </c>
       <c r="F91" s="21" t="n">
         <v>9455.90619</v>
@@ -4935,10 +4815,10 @@
         <v>11418.89641</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>20573.3002</v>
+        <v>21609.32714</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>28764.49696</v>
+        <v>29785.83764</v>
       </c>
       <c r="K91" s="22" t="n">
         <v>39707.07158</v>
@@ -4949,12 +4829,17 @@
       <c r="M91" s="22" t="n">
         <v>67924.08473</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>67595.208</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>31633.30089</v>
@@ -4969,13 +4854,13 @@
         <v>44705.24262</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>52841.74535000001</v>
+        <v>52841.74535</v>
       </c>
       <c r="H92" s="21" t="n">
         <v>58142.43349</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>66284.85239</v>
+        <v>66623.83039</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>80513.79559000001</v>
@@ -4984,17 +4869,22 @@
         <v>131850.84617</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>139632.68354</v>
+        <v>139658.32454</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>139493.80437</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>139579.44537</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>160296.661</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>3530.74309</v>
@@ -5015,10 +4905,10 @@
         <v>7217.593650000001</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>7417.551359999999</v>
+        <v>8327.87551</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>8760.774170000002</v>
+        <v>9487.82307</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>10748.64707</v>
@@ -5029,12 +4919,17 @@
       <c r="M93" s="22" t="n">
         <v>13588.11001</v>
       </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+      <c r="N93" s="22" t="n">
+        <v>14337.686</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>3151.11115</v>
@@ -5043,7 +4938,7 @@
         <v>3400.50667</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>3268.25248</v>
+        <v>3268.252480000001</v>
       </c>
       <c r="F94" s="21" t="n">
         <v>4029.142020000001</v>
@@ -5055,26 +4950,31 @@
         <v>5420.960929999999</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>5265.00126</v>
+        <v>6628.43618</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>7660.06134</v>
+        <v>8026.11187</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>9956.909109999999</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>12058.65123</v>
+        <v>12067.90123</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>16165.02191</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>16179.10157</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>17283.046</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>425.70742</v>
@@ -5109,18 +5009,23 @@
       <c r="M95" s="22" t="n">
         <v>417.00769</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>420.708</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>57280.8887</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>67375.68177000001</v>
+        <v>67375.68177</v>
       </c>
       <c r="E96" s="22" t="n">
         <v>76706.44159999999</v>
@@ -5135,26 +5040,31 @@
         <v>118159.82608</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>133019.16109</v>
+        <v>134445.78679</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>155735.9479</v>
+        <v>158023.14634</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>179808.53207</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>209456.10055</v>
+        <v>209461.36935</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>226750.75075</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>226768.25726</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>248464.957</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>29770.12636</v>
@@ -5169,16 +5079,16 @@
         <v>40145.86270000001</v>
       </c>
       <c r="G97" s="22" t="n">
-        <v>43888.29098000001</v>
+        <v>43888.29098</v>
       </c>
       <c r="H97" s="21" t="n">
-        <v>53252.96305000001</v>
+        <v>53252.96305</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>47175.90636</v>
+        <v>65827.41156000001</v>
       </c>
       <c r="J97" s="21" t="n">
-        <v>48710.04140000001</v>
+        <v>48710.0414</v>
       </c>
       <c r="K97" s="22" t="n">
         <v>14811.60149</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>20089.51437</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>23956.866</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>81.26862</v>
@@ -5218,7 +5133,7 @@
         <v>7787.9496</v>
       </c>
       <c r="J98" s="21" t="n">
-        <v>2645.37255</v>
+        <v>2888.27006</v>
       </c>
       <c r="K98" s="22" t="n">
         <v>1803.6751</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>1425.7551</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>1427.755</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>8249.01174</v>
@@ -5246,7 +5166,7 @@
         <v>2554.6724</v>
       </c>
       <c r="F99" s="33" t="n">
-        <v>4550.0338</v>
+        <v>4550.033800000001</v>
       </c>
       <c r="G99" s="23" t="n">
         <v>4794.530900000001</v>
@@ -5255,7 +5175,7 @@
         <v>6515.42459</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>7933.41568</v>
+        <v>7944.379849999999</v>
       </c>
       <c r="J99" s="33" t="n">
         <v>8205.451730000001</v>
@@ -5264,26 +5184,31 @@
         <v>11115.0682</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>11221.4648</v>
+        <v>11224.94428</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>11092.04033</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>11099.90994</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>10715.719</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>9708.229289999999</v>
       </c>
       <c r="D100" s="22" t="n">
-        <v>4424.95745</v>
+        <v>4424.957449999999</v>
       </c>
       <c r="E100" s="22" t="n">
-        <v>4444.83264</v>
+        <v>4444.832640000001</v>
       </c>
       <c r="F100" s="21" t="n">
         <v>6660.58483</v>
@@ -5295,7 +5220,7 @@
         <v>8653.849400000001</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>10035.25083</v>
+        <v>10164.0925</v>
       </c>
       <c r="J100" s="21" t="n">
         <v>10692.43431</v>
@@ -5309,12 +5234,17 @@
       <c r="M100" s="22" t="n">
         <v>13383.6291</v>
       </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+      <c r="N100" s="22" t="n">
+        <v>12633.482</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>144.213</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>23.55009</v>
@@ -5375,7 +5310,7 @@
         <v>30.88021</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>29.49833</v>
+        <v>30.74501</v>
       </c>
       <c r="J102" s="21" t="n">
         <v>29.88256</v>
@@ -5389,12 +5324,17 @@
       <c r="M102" s="22" t="n">
         <v>38.37645</v>
       </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+      <c r="N102" s="22" t="n">
+        <v>39.035</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5429,21 +5369,26 @@
       <c r="M103" s="22" t="n">
         <v>387.19966</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>1178.845</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
-        <v>663.5565499999999</v>
+        <v>663.55655</v>
       </c>
       <c r="D104" s="22" t="n">
-        <v>808.5660899999999</v>
+        <v>808.56609</v>
       </c>
       <c r="E104" s="22" t="n">
-        <v>605.6877799999999</v>
+        <v>605.68778</v>
       </c>
       <c r="F104" s="21" t="n">
         <v>812.60564</v>
@@ -5464,17 +5409,22 @@
         <v>2105.40867</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>2424.51374</v>
+        <v>2428.86309</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>2270.58661</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>2280.19596</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>2138.597</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>82.01247000000001</v>
@@ -5492,7 +5442,7 @@
         <v>279.74619</v>
       </c>
       <c r="H105" s="21" t="n">
-        <v>356.8344999999999</v>
+        <v>356.8345</v>
       </c>
       <c r="I105" s="22" t="n">
         <v>421.388</v>
@@ -5509,12 +5459,17 @@
       <c r="M105" s="22" t="n">
         <v>1907.55247</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>2045.885</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>2228.33666</v>
@@ -5535,26 +5490,31 @@
         <v>4084.69035</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>4389.24934</v>
+        <v>4508.373519999999</v>
       </c>
       <c r="J106" s="21" t="n">
         <v>5089.59934</v>
       </c>
       <c r="K106" s="22" t="n">
-        <v>5569.15213</v>
+        <v>5569.152129999999</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>6377.14439</v>
+        <v>6378.014260000001</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>6943.30396</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>6945.043699999999</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>7464.338</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>48</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>291.5416</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>583.176</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>84.39815</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>112.898</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>207.14345</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>470.278</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>169.43053</v>
@@ -5849,16 +5844,16 @@
         <v>2147.99033</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>5838.93811</v>
+        <v>5838.938109999999</v>
       </c>
       <c r="H114" s="33" t="n">
         <v>8516.86933</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>6084.50705</v>
+        <v>6157.109939999999</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>7160.29686</v>
+        <v>7160.563700000001</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>7158.96017</v>
@@ -5867,14 +5862,19 @@
         <v>5240.08579</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>6562.07284</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>6576.218059999999</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>4474.299</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>169.43053</v>
@@ -5889,16 +5889,16 @@
         <v>2147.99033</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>5838.93811</v>
+        <v>5838.938109999999</v>
       </c>
       <c r="H115" s="21" t="n">
         <v>8516.86933</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>6084.50705</v>
+        <v>6157.109939999999</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>7160.29686</v>
+        <v>7160.563700000001</v>
       </c>
       <c r="K115" s="22" t="n">
         <v>7158.96017</v>
@@ -5907,14 +5907,19 @@
         <v>5240.08579</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>6562.07284</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>6576.21806</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>4474.299</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>1.54172</v>
@@ -5984,17 +5994,22 @@
         <v>856.57426</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>970.02895</v>
+        <v>969.56337</v>
       </c>
       <c r="M117" s="23" t="n">
         <v>1497.99823</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>841.593</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>550.372</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>1.54172</v>
@@ -6224,17 +6264,22 @@
         <v>840.97005</v>
       </c>
       <c r="L123" s="22" t="n">
-        <v>841.4356300000001</v>
+        <v>840.97005</v>
       </c>
       <c r="M123" s="22" t="n">
         <v>840.97005</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>841.004</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>106.65618</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>137460.00879</v>
@@ -6375,23 +6435,26 @@
         <v>302311.15186</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>324877.41173</v>
+        <v>356140.30303</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>387704.39872</v>
+        <v>389769.01818</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>427476.58235</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>482304.89339</v>
+        <v>482344.19712</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>532659.0876</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>534794.54853</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>663375.3320000001</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>353-Steam and air conditioning supply</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>44047.81603</v>
@@ -6504,35 +6581,40 @@
         <v>83760.44584999999</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>94735.83486999999</v>
+        <v>94735.83487000001</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>107755.34576</v>
+        <v>116768.62903</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>125563.02845</v>
+        <v>125594.49279</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>139236.174</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>181057.88557</v>
+        <v>181108.49167</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>187464.2668</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>187675.81957</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>278210.158</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>770.43366</v>
       </c>
       <c r="D133" s="23" t="n">
-        <v>4341.04789</v>
+        <v>4341.047890000001</v>
       </c>
       <c r="E133" s="23" t="n">
         <v>11525.96145</v>
@@ -6541,13 +6623,13 @@
         <v>14716.43826</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>5240.698880000001</v>
+        <v>5240.69888</v>
       </c>
       <c r="H133" s="33" t="n">
         <v>14370.30539</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>22356.13654</v>
+        <v>22602.39532</v>
       </c>
       <c r="J133" s="33" t="n">
         <v>23962.30276</v>
@@ -6561,15 +6643,20 @@
       <c r="M133" s="23" t="n">
         <v>20486.44978</v>
       </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+      <c r="N133" s="23" t="n">
+        <v>25963.713</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
-        <v>747.8658800000001</v>
+        <v>747.8658799999998</v>
       </c>
       <c r="D134" s="22" t="n">
         <v>1421.82546</v>
@@ -6578,16 +6665,16 @@
         <v>2138.71387</v>
       </c>
       <c r="F134" s="21" t="n">
-        <v>4187.648770000001</v>
+        <v>4187.64877</v>
       </c>
       <c r="G134" s="22" t="n">
-        <v>5182.95561</v>
+        <v>5182.955609999999</v>
       </c>
       <c r="H134" s="21" t="n">
         <v>6532.94597</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>10185.42798</v>
+        <v>10423.42798</v>
       </c>
       <c r="J134" s="21" t="n">
         <v>15764.46929</v>
@@ -6601,12 +6688,17 @@
       <c r="M134" s="22" t="n">
         <v>11672.08315</v>
       </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+      <c r="N134" s="22" t="n">
+        <v>7869.455</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>0</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>55.33558</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>0</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>1.87686</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>0</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>8653.173070000001</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>17877.023</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>22.56778</v>
@@ -6907,7 +7034,7 @@
         <v>66.39476000000001</v>
       </c>
       <c r="I142" s="22" t="n">
-        <v>5464.712570000001</v>
+        <v>5472.97135</v>
       </c>
       <c r="J142" s="21" t="n">
         <v>19.07496</v>
@@ -6921,12 +7048,17 @@
       <c r="M142" s="22" t="n">
         <v>107.73484</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>217.225</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>32157.11663</v>
@@ -6947,26 +7079,31 @@
         <v>39726.68795</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>36763.50635</v>
+        <v>43049.70995</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>55784.22950999999</v>
+        <v>55785.3708</v>
       </c>
       <c r="K143" s="46" t="n">
-        <v>58194.68015</v>
+        <v>58194.68014999999</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>81200.66322</v>
+        <v>81247.2096</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>89936.42022</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>90026.03069</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>97481.726</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>21069.61209</v>
@@ -6987,7 +7124,7 @@
         <v>29825.69119</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>25085.98090999999</v>
+        <v>31372.18451</v>
       </c>
       <c r="J144" s="24" t="n">
         <v>42765.32216</v>
@@ -6996,17 +7133,22 @@
         <v>41190.37944</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>61598.52049</v>
+        <v>61628.77686999999</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>67193.91574</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>67264.52621000001</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>75372.26300000001</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>3157.61568</v>
@@ -7033,7 +7175,7 @@
         <v>1808.43447</v>
       </c>
       <c r="K145" s="25" t="n">
-        <v>5787.421220000001</v>
+        <v>5787.42122</v>
       </c>
       <c r="L145" s="25" t="n">
         <v>6808.754889999999</v>
@@ -7041,12 +7183,17 @@
       <c r="M145" s="25" t="n">
         <v>8044.85837</v>
       </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+      <c r="N145" s="25" t="n">
+        <v>8921.004000000001</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,18 +7228,23 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>5352.05566</v>
       </c>
       <c r="D147" s="25" t="n">
-        <v>7783.88935</v>
+        <v>7783.889349999999</v>
       </c>
       <c r="E147" s="25" t="n">
         <v>10978.88727</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>11956.04882</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>12474.423</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>2577.8332</v>
@@ -7150,23 +7307,28 @@
         <v>1759.60443</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>1305.19711</v>
+        <v>1306.3384</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>498.2452</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>1404.9863</v>
+        <v>1421.2763</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>2741.59729</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>2760.59729</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>714.0359999999999</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>4453.47548</v>
@@ -7175,7 +7337,7 @@
         <v>10332.63716</v>
       </c>
       <c r="E149" s="23" t="n">
-        <v>8126.998449999999</v>
+        <v>8126.99845</v>
       </c>
       <c r="F149" s="33" t="n">
         <v>6968.93417</v>
@@ -7187,7 +7349,7 @@
         <v>20512.12829</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>26610.20187</v>
+        <v>26791.08043</v>
       </c>
       <c r="J149" s="33" t="n">
         <v>22384.20434</v>
@@ -7196,17 +7358,22 @@
         <v>22959.11043</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>27344.39467</v>
+        <v>27348.29113</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>32967.713</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>33055.72725</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>101446.358</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>3528.65428</v>
@@ -7236,17 +7403,22 @@
         <v>16165.02172</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>19337.66446</v>
+        <v>19341.56092</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>21676.08241</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>21764.09666</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>86848.33100000001</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0.02562</v>
@@ -7321,21 +7498,26 @@
       <c r="M152" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>456.42275</v>
       </c>
       <c r="D153" s="22" t="n">
-        <v>390.7194499999999</v>
+        <v>390.71945</v>
       </c>
       <c r="E153" s="22" t="n">
-        <v>648.66372</v>
+        <v>648.6637200000001</v>
       </c>
       <c r="F153" s="21" t="n">
         <v>1060.70708</v>
@@ -7347,7 +7529,7 @@
         <v>1750.35113</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>1375.04168</v>
+        <v>1555.92024</v>
       </c>
       <c r="J153" s="21" t="n">
         <v>1408.36837</v>
@@ -7361,12 +7543,17 @@
       <c r="M153" s="22" t="n">
         <v>4980.28366</v>
       </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+      <c r="N153" s="22" t="n">
+        <v>5826.331</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>468.37283</v>
@@ -7384,7 +7571,7 @@
         <v>802.10738</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>3052.25412</v>
+        <v>3052.254120000001</v>
       </c>
       <c r="I154" s="22" t="n">
         <v>4620.72213</v>
@@ -7393,20 +7580,25 @@
         <v>3602.43593</v>
       </c>
       <c r="K154" s="22" t="n">
-        <v>4980.896009999999</v>
+        <v>4980.89601</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>3933.78427</v>
+        <v>3933.784270000001</v>
       </c>
       <c r="M154" s="22" t="n">
         <v>6311.34693</v>
       </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+      <c r="N154" s="22" t="n">
+        <v>8771.696</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>1195.26079</v>
@@ -7467,10 +7664,10 @@
         <v>5249.840270000001</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>10707.52417</v>
+        <v>10716.67689</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>6339.57638</v>
+        <v>6339.73251</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>7337.88529</v>
@@ -7481,12 +7678,17 @@
       <c r="M156" s="23" t="n">
         <v>8829.05867</v>
       </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+      <c r="N156" s="23" t="n">
+        <v>11384.134</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>902.6902500000001</v>
@@ -7498,7 +7700,7 @@
         <v>7348.50876</v>
       </c>
       <c r="F157" s="21" t="n">
-        <v>7581.81834</v>
+        <v>7581.818340000001</v>
       </c>
       <c r="G157" s="22" t="n">
         <v>9461.506720000001</v>
@@ -7507,10 +7709,10 @@
         <v>5165.367740000001</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>10267.44232</v>
+        <v>10276.59504</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>5692.040480000001</v>
+        <v>5692.196609999999</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>7257.72462</v>
@@ -7521,12 +7723,17 @@
       <c r="M157" s="22" t="n">
         <v>8742.576359999999</v>
       </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+      <c r="N157" s="22" t="n">
+        <v>11097.573</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>292.57054</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>86.48231</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>286.561</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>4646.20208</v>
@@ -7695,10 +7922,10 @@
         <v>3534.31969</v>
       </c>
       <c r="E162" s="23" t="n">
-        <v>6057.446210000001</v>
+        <v>6057.446209999999</v>
       </c>
       <c r="F162" s="33" t="n">
-        <v>6799.81404</v>
+        <v>6799.814039999999</v>
       </c>
       <c r="G162" s="23" t="n">
         <v>8385.063969999999</v>
@@ -7707,26 +7934,31 @@
         <v>9837.478160000001</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>9339.458309999998</v>
+        <v>11630.24792</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>15188.01808</v>
+        <v>15218.185</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>14865.61685</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>25754.64877</v>
+        <v>25754.81203</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>32612.09889</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>32646.02694</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>39312.926</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>1501.29171</v>
@@ -7747,26 +7979,31 @@
         <v>1812.91852</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>1915.75207</v>
+        <v>2118.20016</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>2821.54691</v>
+        <v>2835.3763</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>3250.08856</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>3254.41882</v>
+        <v>3254.58208</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>2882.1448</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>2890.24725</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>3238.885</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>1624.9168</v>
@@ -7787,10 +8024,10 @@
         <v>1246.30144</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>692.56044</v>
+        <v>1226.91438</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>1003.48561</v>
+        <v>1019.46369</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>1190.93631</v>
@@ -7799,14 +8036,19 @@
         <v>2266.73018</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>2410.44301</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>2436.26861</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>2573.87</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>1512.61913</v>
@@ -7818,16 +8060,16 @@
         <v>3692.10442</v>
       </c>
       <c r="F165" s="21" t="n">
-        <v>4190.7502</v>
+        <v>4190.750199999999</v>
       </c>
       <c r="G165" s="22" t="n">
         <v>5332.763349999999</v>
       </c>
       <c r="H165" s="21" t="n">
-        <v>6771.84789</v>
+        <v>6771.847890000001</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>6730.59753</v>
+        <v>8284.58511</v>
       </c>
       <c r="J165" s="21" t="n">
         <v>11361.20429</v>
@@ -7841,12 +8083,17 @@
       <c r="M165" s="22" t="n">
         <v>27188.80967</v>
       </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+      <c r="N165" s="22" t="n">
+        <v>33376.625</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>7.374440000000001</v>
@@ -7870,7 +8117,7 @@
         <v>0.54827</v>
       </c>
       <c r="J166" s="21" t="n">
-        <v>1.78127</v>
+        <v>2.14072</v>
       </c>
       <c r="K166" s="22" t="n">
         <v>5.027579999999999</v>
@@ -7881,18 +8128,23 @@
       <c r="M166" s="22" t="n">
         <v>130.70141</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>123.546</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>450.32277</v>
       </c>
       <c r="D167" s="23" t="n">
-        <v>495.3796100000001</v>
+        <v>495.37961</v>
       </c>
       <c r="E167" s="23" t="n">
         <v>248.42783</v>
@@ -7921,12 +8173,17 @@
       <c r="M167" s="23" t="n">
         <v>1209.52975</v>
       </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+      <c r="N167" s="23" t="n">
+        <v>1312.588</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>2200.12789</v>
@@ -7953,7 +8210,7 @@
         <v>3410.37058</v>
       </c>
       <c r="K168" s="22" t="n">
-        <v>4045.962819999999</v>
+        <v>4045.96282</v>
       </c>
       <c r="L168" s="22" t="n">
         <v>3765.52357</v>
@@ -7961,12 +8218,17 @@
       <c r="M168" s="22" t="n">
         <v>7428.593849999999</v>
       </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+      <c r="N168" s="22" t="n">
+        <v>6637.078</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>1986.50962</v>
@@ -8001,12 +8263,17 @@
       <c r="M169" s="22" t="n">
         <v>6625.44992</v>
       </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+      <c r="N169" s="22" t="n">
+        <v>5849.587</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>344.62877</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>344.629</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>236.7045</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>118.711</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>61.75705</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>61.757</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>374.80462</v>
@@ -8138,10 +8420,10 @@
         <v>2238.68722</v>
       </c>
       <c r="F173" s="33" t="n">
-        <v>434.85629</v>
+        <v>434.8562900000001</v>
       </c>
       <c r="G173" s="23" t="n">
-        <v>763.67318</v>
+        <v>763.6731799999999</v>
       </c>
       <c r="H173" s="33" t="n">
         <v>4764.19818</v>
@@ -8161,12 +8443,17 @@
       <c r="M173" s="23" t="n">
         <v>1402.70424</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>1291.671</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>347.63836</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>532.88915</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>315.915</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>27.16626</v>
@@ -8218,10 +8510,10 @@
         <v>4.48263</v>
       </c>
       <c r="F175" s="21" t="n">
-        <v>432.85629</v>
+        <v>432.8562900000001</v>
       </c>
       <c r="G175" s="22" t="n">
-        <v>761.67318</v>
+        <v>761.6731799999999</v>
       </c>
       <c r="H175" s="21" t="n">
         <v>442.24796</v>
@@ -8233,7 +8525,7 @@
         <v>675.14423</v>
       </c>
       <c r="K175" s="22" t="n">
-        <v>915.7576899999999</v>
+        <v>915.75769</v>
       </c>
       <c r="L175" s="22" t="n">
         <v>583.94275</v>
@@ -8241,12 +8533,17 @@
       <c r="M175" s="22" t="n">
         <v>869.8150899999999</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>975.756</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>0.2</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>20.29225</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>17.042</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>8.042249999999999</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>8.042</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0.2</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>3.25</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>20996.70187</v>
@@ -8495,7 +8822,7 @@
         <v>31665.66218</v>
       </c>
       <c r="E182" s="23" t="n">
-        <v>35181.4717</v>
+        <v>35181.47169999999</v>
       </c>
       <c r="F182" s="33" t="n">
         <v>33544.85387</v>
@@ -8507,10 +8834,10 @@
         <v>55883.59939</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>58329.73092</v>
+        <v>58701.98744</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>54606.1446</v>
+        <v>54814.29324</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>60830.46923</v>
@@ -8521,12 +8848,17 @@
       <c r="M182" s="23" t="n">
         <v>80324.54103000001</v>
       </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+      <c r="N182" s="23" t="n">
+        <v>113952.381</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>12571.42637</v>
@@ -8561,12 +8893,17 @@
       <c r="M183" s="23" t="n">
         <v>29982.56243</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>27837.319</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>7264.38508</v>
@@ -8601,12 +8938,17 @@
       <c r="M184" s="22" t="n">
         <v>29847.20632</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>27837.319</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>0</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>138.67202</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>0</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>3.31591</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>5307.04129</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>6051.546240000001</v>
@@ -8867,7 +9239,7 @@
         <v>26963.54105</v>
       </c>
       <c r="I191" s="23" t="n">
-        <v>27171.46616</v>
+        <v>27543.72268</v>
       </c>
       <c r="J191" s="33" t="n">
         <v>28264.40377</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>31251.52393</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>29211.462</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>141.61119</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>3932.97616</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>61</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>5909.93505</v>
@@ -9027,7 +9419,7 @@
         <v>17396.24615</v>
       </c>
       <c r="I195" s="22" t="n">
-        <v>18542.45282</v>
+        <v>18914.70934</v>
       </c>
       <c r="J195" s="21" t="n">
         <v>20792.22033</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>27318.54777</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>29150.462</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>680.7157900000001</v>
@@ -9121,12 +9523,17 @@
       <c r="M197" s="23" t="n">
         <v>17968.35215</v>
       </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+      <c r="N197" s="23" t="n">
+        <v>56159.873</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>648.24532</v>
@@ -9161,12 +9568,17 @@
       <c r="M198" s="22" t="n">
         <v>2418.30509</v>
       </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+      <c r="N198" s="22" t="n">
+        <v>30279.247</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>32.47047</v>
@@ -9350,10 +9782,10 @@
         <v>4593.07951</v>
       </c>
       <c r="J203" s="21" t="n">
-        <v>5283.01794</v>
+        <v>5283.017940000001</v>
       </c>
       <c r="K203" s="22" t="n">
-        <v>8137.993520000001</v>
+        <v>8137.99352</v>
       </c>
       <c r="L203" s="22" t="n">
         <v>8544.153179999999</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>15550.04706</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>25880.626</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>1464.94098</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>1464.94098</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>133.40234</v>
@@ -9510,7 +9962,7 @@
         <v>19.99593</v>
       </c>
       <c r="J207" s="33" t="n">
-        <v>20.39843</v>
+        <v>228.54707</v>
       </c>
       <c r="K207" s="23" t="n">
         <v>270.44024</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>305.20761</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>374.408</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>133.40234</v>
@@ -9550,7 +10007,7 @@
         <v>19.99593</v>
       </c>
       <c r="J208" s="21" t="n">
-        <v>20.39843</v>
+        <v>228.54707</v>
       </c>
       <c r="K208" s="22" t="n">
         <v>270.44024</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>305.20761</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>374.408</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>94.67014999999999</v>
@@ -9636,17 +10103,22 @@
         <v>711.7028</v>
       </c>
       <c r="L210" s="23" t="n">
-        <v>811.35533</v>
+        <v>811.3553300000001</v>
       </c>
       <c r="M210" s="23" t="n">
         <v>816.89491</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>369.286</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>94.36972999999999</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>710.7375</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>332.743</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0.30042</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>106.15741</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>36.543</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,18 +10378,23 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>72415.49089</v>
       </c>
       <c r="D217" s="23" t="n">
-        <v>94060.5067</v>
+        <v>94060.50669999998</v>
       </c>
       <c r="E217" s="23" t="n">
         <v>104085.37729</v>
@@ -9907,32 +10409,37 @@
         <v>151691.7176</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>158792.33505</v>
+        <v>180669.68656</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>207535.22567</v>
+        <v>209360.23215</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>227409.93912</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>242463.5974</v>
+        <v>242452.29503</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>264870.27977</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>266794.18793</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>271212.793</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>84637.26434000001</v>
       </c>
       <c r="D218" s="23" t="n">
-        <v>96693.54341999999</v>
+        <v>96693.54342</v>
       </c>
       <c r="E218" s="23" t="n">
         <v>113487.36054</v>
@@ -9947,10 +10454,10 @@
         <v>161409.58894</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>155653.4164</v>
+        <v>177835.58456</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>228250.11219</v>
+        <v>229734.50927</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>247277.46875</v>
@@ -9961,12 +10468,17 @@
       <c r="M218" s="23" t="n">
         <v>271409.23974</v>
       </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+      <c r="N218" s="23" t="n">
+        <v>282135.156</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>68735.2</v>
@@ -9987,26 +10499,31 @@
         <v>149747.5</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>141857.5</v>
+        <v>168857.5</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>211322.5</v>
+        <v>212372.5</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>232187.5</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>250387.5</v>
+        <v>250397.5</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>258398.5</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>258658.5</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>271619.446</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>11408.09285</v>
@@ -10027,7 +10544,7 @@
         <v>15071.75432</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>12932.02427</v>
+        <v>17749.85611</v>
       </c>
       <c r="J220" s="21" t="n">
         <v>9767.381230000001</v>
@@ -10036,17 +10553,22 @@
         <v>12039.42175</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>11009.62405</v>
+        <v>11019.62405</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>14111.9429</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>14371.9429</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>16486.026</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>27310.15719</v>
@@ -10070,7 +10592,7 @@
         <v>26727.94067</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>26694.99342</v>
+        <v>27129.3905</v>
       </c>
       <c r="K221" s="22" t="n">
         <v>27129.3905</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>27122.68264</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>27001.736</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>50</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>5847.9706</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>6791.142</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>647.9706</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>647.971</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>700</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>700</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>50</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>4500</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>5443.171</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>9249.482669999999</v>
@@ -10467,10 +11039,10 @@
         <v>23872.03286</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>25575.14632</v>
+        <v>25999.5612</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>25928.80385</v>
+        <v>26079.85106</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>29036.21671</v>
@@ -10481,12 +11053,17 @@
       <c r="M231" s="23" t="n">
         <v>31321.5835</v>
       </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+      <c r="N231" s="23" t="n">
+        <v>31893.11</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>882.7936500000001</v>
@@ -10507,10 +11084,10 @@
         <v>1987.89097</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>2145.29485</v>
+        <v>2485.6731</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>3051.67267</v>
+        <v>3202.71988</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>3350.84723</v>
@@ -10521,12 +11098,17 @@
       <c r="M232" s="22" t="n">
         <v>3695.96055</v>
       </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+      <c r="N232" s="22" t="n">
+        <v>3719.223</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>1.49491</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>74.77327000000001</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>106.113</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>8222.69411</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>27337.29978</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>27854.638</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>142.5</v>
@@ -10667,7 +11264,7 @@
         <v>84.03663</v>
       </c>
       <c r="I236" s="22" t="n">
-        <v>0</v>
+        <v>84.03663</v>
       </c>
       <c r="J236" s="21" t="n">
         <v>0</v>
@@ -10681,18 +11278,23 @@
       <c r="M236" s="22" t="n">
         <v>213.5499</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>213.136</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>4908.40886</v>
       </c>
       <c r="D237" s="23" t="n">
-        <v>7454.21488</v>
+        <v>7454.214879999999</v>
       </c>
       <c r="E237" s="23" t="n">
         <v>7182.57571</v>
@@ -10707,26 +11309,31 @@
         <v>24282.19442</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>26764.01504</v>
+        <v>28137.52586</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>22431.4651</v>
+        <v>23313.84755</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>36439.4261</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>51368.07695999999</v>
+        <v>51367.61138</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>70869.07255</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>72869.07254999998</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>90191.086</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-26431.00419</v>
@@ -10747,72 +11354,82 @@
         <v>-56497.53575</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-55956.89521</v>
+        <v>-58248.67541</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-69184.24237000001</v>
+        <v>-69780.18271000001</v>
       </c>
       <c r="K238" s="23" t="n">
-        <v>-91250.9424</v>
+        <v>-91250.94239999999</v>
       </c>
       <c r="L238" s="23" t="n">
         <v>-109262.85512</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-129103.45491</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-129114.2917</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-146764.254</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>1.339209999999963</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>1277.443760000001</v>
+        <v>1277.44376</v>
       </c>
       <c r="E239" s="23" t="n">
-        <v>-1778.275520000001</v>
+        <v>-1778.27552</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>9911.717360000001</v>
+        <v>9911.717359999999</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>-3298.84548</v>
+        <v>-3298.845479999999</v>
       </c>
       <c r="H239" s="33" t="n">
         <v>-1374.56287</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>6756.6525</v>
+        <v>6945.690350000001</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-4690.913099999999</v>
+        <v>-4787.793019999999</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>1100.188329999998</v>
+        <v>1100.18833</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-2591.77705</v>
+        <v>-2602.61384</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>14525.86829</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>14460.61324</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>6966.553</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>9673.1813</v>
       </c>
       <c r="D240" s="22" t="n">
-        <v>7557.205369999999</v>
+        <v>7557.20537</v>
       </c>
       <c r="E240" s="22" t="n">
         <v>5189.47033</v>
@@ -10821,13 +11438,13 @@
         <v>14304.04056</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>6622.12871</v>
+        <v>6622.128710000001</v>
       </c>
       <c r="H240" s="21" t="n">
         <v>8387.805920000001</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>18226.17374</v>
+        <v>19630.86525</v>
       </c>
       <c r="J240" s="21" t="n">
         <v>16392.45472</v>
@@ -10841,12 +11458,17 @@
       <c r="M240" s="22" t="n">
         <v>35180.45784</v>
       </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+      <c r="N240" s="22" t="n">
+        <v>37070.108</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>9671.84209</v>
@@ -10867,26 +11489,31 @@
         <v>9762.368789999999</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>11469.52124</v>
+        <v>12685.1749</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>21083.36782</v>
+        <v>21180.24774</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>17367.32141</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>26161.99839</v>
+        <v>26172.83518</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>20654.58955</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>20719.8446</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>30103.555</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>137460.00879</v>
@@ -10907,23 +11534,26 @@
         <v>302311.15186</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>324877.4117299999</v>
+        <v>356140.30303</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>387704.3987200001</v>
+        <v>389769.01818</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>427476.58235</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>482304.89339</v>
+        <v>482344.19712</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>532659.0876</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>534794.54853</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>663375.3320000001</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>43</v>
@@ -10963,23 +11596,26 @@
         <v>59</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>76</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>81</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>83</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>88</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>